--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>905266.1928332717</v>
+        <v>902564.9762106246</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11290075.81958822</v>
+        <v>11290259.09622851</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>103.7427589056394</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>68.11693918766136</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.54119192805631</v>
+        <v>92.73964154763148</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>244.2849448143801</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>185.1421734110665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>16.15632264294845</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>134.3807354218354</v>
       </c>
     </row>
     <row r="7">
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>31.0007482193069</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>246.4412936084438</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>138.0481400792187</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83088445038202</v>
+        <v>11.83349180859358</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151445</v>
+        <v>76.72779446896584</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>207.9092264837461</v>
       </c>
       <c r="U8" t="n">
-        <v>50.80093878797155</v>
+        <v>251.0681132513132</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>1.722493174784292</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436615</v>
+        <v>94.30836251344152</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036434013</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.43165252365246</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647271</v>
+        <v>137.2048826855192</v>
       </c>
       <c r="T9" t="n">
-        <v>29.00187705258964</v>
+        <v>192.6828994016847</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>225.8192629956679</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.723675290411655</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8965517281903</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2341465824415</v>
       </c>
       <c r="V10" t="n">
-        <v>173.1329567988153</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3012171022974</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>121.9621576786284</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
-        <v>189.7415240061373</v>
+        <v>189.655441187015</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7712536040104</v>
+        <v>225.7698485525558</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>68.97261964692214</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>36.12932374479107</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187875</v>
+        <v>359.5517498754666</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>81.27859867330375</v>
+        <v>103.1983720868893</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892412</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>37.58623250008669</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795602</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>134.5665975534136</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>275.3300239197264</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>125.2851635392036</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186441</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.3870054807227</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716138</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834476</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>36.22494343870252</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>206.5512581543052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428142</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456777</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>72.60410776434539</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.0228471103738</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="C2" t="n">
-        <v>133.0228471103738</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>133.0228471103738</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>133.0228471103738</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433432</v>
+        <v>603.4370373477799</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268585</v>
+        <v>603.4370373477799</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268585</v>
+        <v>414.017252331295</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268585</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268585</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268585</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.0228471103738</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>351.5242009272026</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>177.0711716460756</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>177.0711716460756</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>177.0711716460756</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>298.0982375934586</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487947</v>
+        <v>298.0982375934586</v>
       </c>
       <c r="X3" t="n">
-        <v>371.26277863231</v>
+        <v>108.6784525769738</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.26277863231</v>
+        <v>108.6784525769738</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1098.886464691608</v>
+        <v>1396.118167241171</v>
       </c>
       <c r="C5" t="n">
-        <v>852.1339951821335</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="D5" t="n">
-        <v>852.1339951821335</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="E5" t="n">
-        <v>466.3457425838893</v>
+        <v>641.3673977025153</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>230.3814929129077</v>
       </c>
       <c r="G5" t="n">
         <v>43.36919653809306</v>
@@ -4601,16 +4601,16 @@
         <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>1451.655119961722</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W5" t="n">
-        <v>1098.886464691608</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X5" t="n">
-        <v>1098.886464691608</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1098.886464691608</v>
+        <v>1782.718007305293</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>475.2207619161452</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="C6" t="n">
-        <v>475.2207619161452</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="D6" t="n">
-        <v>475.2207619161452</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9012440949851</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4689,7 +4689,7 @@
         <v>475.2207619161452</v>
       </c>
       <c r="Y6" t="n">
-        <v>475.2207619161452</v>
+        <v>339.4826453284327</v>
       </c>
     </row>
     <row r="7">
@@ -4744,25 +4744,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>466.1525394612431</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>266.9730538454695</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V7" t="n">
-        <v>271.3587474361104</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W7" t="n">
-        <v>271.3587474361104</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
         <v>43.36919653809306</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.906800093045</v>
+        <v>867.9069811943066</v>
       </c>
       <c r="C8" t="n">
-        <v>902.9442831526335</v>
+        <v>498.9444642538949</v>
       </c>
       <c r="D8" t="n">
-        <v>544.678584545883</v>
+        <v>140.6787656471444</v>
       </c>
       <c r="E8" t="n">
-        <v>544.678584545883</v>
+        <v>140.6787656471444</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6926797562754</v>
+        <v>133.733264897941</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7422914225562</v>
+        <v>121.7802428690586</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7422914225562</v>
+        <v>121.7802428690586</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941028</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420282</v>
+        <v>156.545388549433</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002209</v>
+        <v>375.544488922942</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707882</v>
+        <v>684.1340000193475</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937541</v>
+        <v>1059.16872739141</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733697</v>
+        <v>1444.885717117921</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659496</v>
+        <v>1795.77207162311</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284319</v>
+        <v>2060.744456291612</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.5719932285</v>
+        <v>2211.554935535265</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970514</v>
+        <v>2213.871008656675</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970514</v>
+        <v>2213.871008656675</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.052422290539</v>
+        <v>2003.861688976123</v>
       </c>
       <c r="U8" t="n">
-        <v>1955.73834270673</v>
+        <v>1750.257534176817</v>
       </c>
       <c r="V8" t="n">
-        <v>1624.675455363159</v>
+        <v>1750.257534176817</v>
       </c>
       <c r="W8" t="n">
-        <v>1271.906800093045</v>
+        <v>1397.488878906703</v>
       </c>
       <c r="X8" t="n">
-        <v>1271.906800093045</v>
+        <v>1397.488878906703</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.906800093045</v>
+        <v>1007.349546930891</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>792.5924723227644</v>
+        <v>300.5157395101302</v>
       </c>
       <c r="C9" t="n">
-        <v>618.1394430416374</v>
+        <v>298.7758474143885</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1394430416374</v>
+        <v>298.7758474143885</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9019880361819</v>
+        <v>139.538392408933</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3674300630669</v>
+        <v>139.538392408933</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904267</v>
+        <v>139.538392408933</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803667</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941028</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113406</v>
+        <v>92.32560606848469</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154139</v>
+        <v>252.6024334910159</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572503</v>
+        <v>514.4369485047791</v>
       </c>
       <c r="M9" t="n">
-        <v>840.409251044968</v>
+        <v>839.3423457618881</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738678</v>
+        <v>1187.255667013957</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074204</v>
+        <v>1483.308590376471</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566932</v>
+        <v>1701.584095618383</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257629</v>
+        <v>1797.576293952202</v>
       </c>
       <c r="R9" t="n">
-        <v>1799.771032257629</v>
+        <v>1766.837250999017</v>
       </c>
       <c r="S9" t="n">
-        <v>1661.206416030632</v>
+        <v>1628.246460407584</v>
       </c>
       <c r="T9" t="n">
-        <v>1631.911590724986</v>
+        <v>1433.617269092751</v>
       </c>
       <c r="U9" t="n">
-        <v>1403.811417780108</v>
+        <v>1205.517003440561</v>
       </c>
       <c r="V9" t="n">
-        <v>1168.659309548365</v>
+        <v>970.3648952088186</v>
       </c>
       <c r="W9" t="n">
-        <v>1168.659309548365</v>
+        <v>716.127538480617</v>
       </c>
       <c r="X9" t="n">
-        <v>960.8078093428323</v>
+        <v>508.2760382750841</v>
       </c>
       <c r="Y9" t="n">
-        <v>960.8078093428323</v>
+        <v>300.5157395101302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.1902807697103</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="C10" t="n">
-        <v>192.2540978418034</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="D10" t="n">
-        <v>192.2540978418034</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941028</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941028</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941028</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941028</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941028</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941028</v>
+        <v>44.2774201731335</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016637</v>
+        <v>95.54660022226437</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810341</v>
+        <v>191.0592970264686</v>
       </c>
       <c r="M10" t="n">
-        <v>295.574081842263</v>
+        <v>295.0223269524054</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091208</v>
+        <v>404.3708743014488</v>
       </c>
       <c r="O10" t="n">
-        <v>485.951469271268</v>
+        <v>485.0588674359255</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139681</v>
+        <v>535.039413709541</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139681</v>
+        <v>535.039413709541</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139681</v>
+        <v>535.039413709541</v>
       </c>
       <c r="S10" t="n">
-        <v>536.0720553139681</v>
+        <v>336.1540079234902</v>
       </c>
       <c r="T10" t="n">
-        <v>536.0720553139681</v>
+        <v>336.1540079234902</v>
       </c>
       <c r="U10" t="n">
-        <v>536.0720553139681</v>
+        <v>47.02860733516547</v>
       </c>
       <c r="V10" t="n">
-        <v>361.1902807697103</v>
+        <v>47.02860733516547</v>
       </c>
       <c r="W10" t="n">
-        <v>361.1902807697103</v>
+        <v>47.02860733516547</v>
       </c>
       <c r="X10" t="n">
-        <v>361.1902807697103</v>
+        <v>47.02860733516547</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.1902807697103</v>
+        <v>47.02860733516547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814044</v>
+        <v>1166.296315748939</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1166.296315748939</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>704.5155104420312</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345378</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926743</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926743</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3449.826645261462</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>3097.057989991347</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2723.592231730267</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.452899754456</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5522947932185</v>
+        <v>941.5530399535777</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0992655120915</v>
+        <v>767.1000106724507</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1648558508402</v>
+        <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>859.4593650377682</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>1367.415930994297</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.225240695506</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.16628502803</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
-        <v>2559.377995458575</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.478772117604</v>
+        <v>2434.391145691522</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.8206670609</v>
+        <v>2242.819992977365</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.768895743717</v>
+        <v>2014.769640904077</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.616787511975</v>
+        <v>1779.617532672334</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.379430783773</v>
+        <v>1525.380175944132</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.52793057824</v>
+        <v>1317.5286757386</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.767631813286</v>
+        <v>1109.768376973646</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.9545584938321</v>
+        <v>395.3603427349919</v>
       </c>
       <c r="C13" t="n">
-        <v>758.0183755659252</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>607.9017361535894</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>459.9886425711964</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>313.098695073286</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177249</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1846.80232340258</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1846.80232340258</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1557.385153365619</v>
+        <v>834.2956531176415</v>
       </c>
       <c r="X13" t="n">
-        <v>1329.395602467602</v>
+        <v>797.8013867087617</v>
       </c>
       <c r="Y13" t="n">
-        <v>1108.603023324072</v>
+        <v>577.0088075652316</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200309</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1016.37775261609</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179117</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>680.4481746984131</v>
+        <v>389.8182101363266</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860774</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036843</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057739</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057739</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602307</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.74706939642</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359459</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614419</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179117</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504989</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504989</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381631</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557701</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578598</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578598</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2226.142357820936</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1392.965472922286</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.1833428807387</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572598</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449242</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>229.742519162531</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
         <v>240.7066105458822</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622243</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219815</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395884</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>302.4540366416781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832661</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176859</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970972</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934011</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035994</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892464</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026074</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820187</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.021500885209</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614388</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614388</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,19 +7008,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,10 +7099,10 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>983.340348461439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179089</v>
       </c>
     </row>
     <row r="38">
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532262</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408904</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408904</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>484.81129684298</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797742</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121641</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27.62915296996442</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.7901007915065</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>217.2281564731214</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>189.5803316442461</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729104</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>85.96822242532409</v>
+        <v>64.0484490117385</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>179.8192178272016</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253344</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>10.85445046951767</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>10.85445046951776</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>40.23897475306524</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457060003</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.44497470121462</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>250.2980548978885</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>79.97174018228584</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393094</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295015</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>213.9188905722456</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893135.8043245591</v>
+        <v>898495.997986929</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>982604.6308232909</v>
+        <v>977244.4371609206</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>982604.6308232908</v>
+        <v>982604.6308232907</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>982604.6308232908</v>
+        <v>982604.6308232909</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232908</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>982604.6308232909</v>
+        <v>982604.6308232907</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253555</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253556</v>
       </c>
-      <c r="C2" t="n">
-        <v>451572.9734253554</v>
-      </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.084350918</v>
+        <v>405380.8397795042</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295034</v>
+        <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="L2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="M2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="N2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="L2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295034</v>
@@ -26366,19 +26366,19 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861776</v>
+        <v>392510.2442861774</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603263843</v>
+        <v>11460.51367738068</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.956767454</v>
+        <v>408312.2999680372</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704287</v>
+        <v>166521.3471051381</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11167.23623557922</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854464</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487771</v>
+        <v>91259.95686487772</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349948797</v>
+        <v>2873.29035020025</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931128</v>
+        <v>106639.5191329067</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202363</v>
+        <v>43782.40655848914</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607431</v>
+        <v>171039.3658295521</v>
       </c>
       <c r="E4" t="n">
-        <v>14721.27748222082</v>
+        <v>14727.57508456131</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26439,22 +26439,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="L4" t="n">
         <v>14826.69604186734</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.6960418674</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14826.69604186736</v>
-      </c>
       <c r="M4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404135</v>
+        <v>86091.29148672921</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475306.2943412332</v>
+        <v>-475306.2943412334</v>
       </c>
       <c r="C6" t="n">
-        <v>-200339.3428055921</v>
+        <v>-200339.3428055918</v>
       </c>
       <c r="D6" t="n">
-        <v>182338.4801879331</v>
+        <v>182981.8024316942</v>
       </c>
       <c r="E6" t="n">
-        <v>-92878.63496614259</v>
+        <v>-103962.7216790862</v>
       </c>
       <c r="F6" t="n">
-        <v>138673.1351933003</v>
+        <v>159944.3303657328</v>
       </c>
       <c r="G6" t="n">
-        <v>327981.4039637289</v>
+        <v>316779.4298027139</v>
       </c>
       <c r="H6" t="n">
-        <v>327981.403963729</v>
+        <v>327946.6660382933</v>
       </c>
       <c r="I6" t="n">
-        <v>327981.4039637287</v>
+        <v>327946.6660382931</v>
       </c>
       <c r="J6" t="n">
-        <v>278916.4592351844</v>
+        <v>278881.7213097486</v>
       </c>
       <c r="K6" t="n">
-        <v>236721.4470988511</v>
+        <v>236686.7091734153</v>
       </c>
       <c r="L6" t="n">
-        <v>324906.9566137802</v>
+        <v>325073.3756880928</v>
       </c>
       <c r="M6" t="n">
-        <v>224572.1430706161</v>
+        <v>221307.1469053864</v>
       </c>
       <c r="N6" t="n">
-        <v>278141.8298317054</v>
+        <v>284164.259479804</v>
       </c>
       <c r="O6" t="n">
-        <v>327981.403963729</v>
+        <v>324923.3680610684</v>
       </c>
       <c r="P6" t="n">
-        <v>327981.4039637289</v>
+        <v>327946.6660382932</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573178</v>
+        <v>862.9748695021908</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426285</v>
+        <v>553.4677521641687</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490093</v>
+        <v>981.3883278086477</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247795</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319633713</v>
+        <v>9.264204964506689</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576328</v>
+        <v>349.1953979923649</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646538</v>
+        <v>11.3527954380055</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063807</v>
+        <v>427.920575644479</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506391</v>
+        <v>178.7569625173588</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646561</v>
+        <v>11.3527954380055</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063805</v>
+        <v>427.920575644479</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>178.7569625173588</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646538</v>
+        <v>11.3527954380055</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063807</v>
+        <v>427.920575644479</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>178.7569625173588</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>303.133286836072</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>90.65887400239174</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.991991721811</v>
+        <v>73.79354210223586</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27479,7 +27479,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377105</v>
+        <v>38.33818124377091</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,13 +27591,13 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>120.9879469566275</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>226.7285614325603</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>141.4887578124525</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>71.30196035546899</v>
       </c>
     </row>
     <row r="7">
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>77.07210304633169</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>5.696349715384201</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>244.6857015842618</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163651</v>
+        <v>303.9453895236493</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731855</v>
+        <v>129.9646330484316</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>200.2669658746847</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>170.9860058135314</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4873070665456</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.6133920227151</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645283003</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>163.6753992797898</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>177.1083048915256</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.433625596421</v>
+        <v>166.4347951675532</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3808817867763</v>
+        <v>148.3912803373881</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743401</v>
+        <v>108.6517721680247</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332465</v>
+        <v>16.97319914237092</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099085</v>
+        <v>21.19579633461504</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313614</v>
+        <v>107.3216913024509</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930956</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>221.2964387944122</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>79.00468652501274</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.857013082623593e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.184208286986177e-12</v>
       </c>
     </row>
     <row r="20">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753034</v>
+        <v>3.469245706541468</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940202</v>
+        <v>35.52941259211781</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788915</v>
+        <v>133.7480951014401</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545831</v>
+        <v>294.4478927855742</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855791</v>
+        <v>441.3010635434746</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160149</v>
+        <v>547.4729918350432</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563166</v>
+        <v>609.16919016875</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765462</v>
+        <v>619.026184532461</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639082</v>
+        <v>584.5288725380392</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278176</v>
+        <v>498.8818691577966</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463494</v>
+        <v>374.6395072922802</v>
       </c>
       <c r="R8" t="n">
-        <v>218.088790078793</v>
+        <v>217.9250056135357</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171305983</v>
+        <v>79.05543653781378</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095641</v>
+        <v>15.18662308038528</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802427</v>
+        <v>0.2775396565233174</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296873</v>
+        <v>1.85621009666509</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213032</v>
+        <v>17.92708172305495</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963565987</v>
+        <v>63.90898797728489</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148725</v>
+        <v>175.371147773082</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867629</v>
+        <v>299.737224249643</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564766</v>
+        <v>403.0336878745845</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722382</v>
+        <v>470.3213038786939</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668783</v>
+        <v>482.7693093076454</v>
       </c>
       <c r="O9" t="n">
-        <v>441.971521551037</v>
+        <v>441.6396013762769</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423388</v>
+        <v>354.4547157394942</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230885</v>
+        <v>236.943590584828</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111339</v>
+        <v>115.2478514403115</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911074</v>
+        <v>34.47828841831864</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442215</v>
+        <v>7.481829293136916</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458469</v>
+        <v>0.1221190853069138</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037786</v>
+        <v>1.55618419090559</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066324</v>
+        <v>13.83589217005153</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291817</v>
+        <v>46.79870275923357</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760715</v>
+        <v>110.0222222970252</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258446</v>
+        <v>180.800308725213</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311305996</v>
+        <v>231.3621478006365</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801595</v>
+        <v>243.9389454889553</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762007</v>
+        <v>238.1386225955801</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833046</v>
+        <v>219.9595618200011</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377336</v>
+        <v>188.2134043255269</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.407140928455</v>
+        <v>130.3092052948308</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580808</v>
+        <v>69.9717000747186</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387668</v>
+        <v>27.12004630878195</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343266</v>
+        <v>6.649150633869336</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842479</v>
+        <v>0.08488277404939591</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>531.1628329446243</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>660.6327957845327</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>237.3367583732575</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>620.3452877431807</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293309</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>671.3535095519899</v>
       </c>
       <c r="O15" t="n">
-        <v>576.057346513631</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>667.8124403339918</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278968</v>
+        <v>113.4019882588879</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782405986</v>
+        <v>221.211212498494</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460277</v>
+        <v>311.706576865056</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290439</v>
+        <v>378.8229569414773</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799553</v>
+        <v>389.6131209358701</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422215</v>
+        <v>354.4306611163524</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725481</v>
+        <v>267.6488734025271</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719</v>
+        <v>152.3338174178307</v>
       </c>
       <c r="R8" t="n">
-        <v>2.50325226466083</v>
+        <v>2.339467799403565</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820583</v>
+        <v>48.53352110641535</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124039</v>
+        <v>161.895785275284</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766025</v>
+        <v>264.4793080947103</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502199</v>
+        <v>328.1872699566756</v>
       </c>
       <c r="N9" t="n">
-        <v>351.790428983545</v>
+        <v>351.4275972243121</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065925</v>
+        <v>299.0433569318324</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280085</v>
+        <v>220.480308325164</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706699</v>
+        <v>96.96181649880646</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530919</v>
+        <v>51.78705055467765</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936133</v>
+        <v>96.47747151939825</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325544</v>
+        <v>105.0131615413502</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109675</v>
+        <v>110.4530781303469</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146182</v>
+        <v>81.5030233681583</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858601</v>
+        <v>50.48540027637929</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>392.6084531647501</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>105.9950462899242</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>477.7490432987363</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936564</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020582</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>540.0117974686566</v>
       </c>
       <c r="O15" t="n">
-        <v>433.4611020691866</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>525.6784064119735</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36756,7 +36756,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060443</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
